--- a/biology/Zoologie/Heloderma/Heloderma.xlsx
+++ b/biology/Zoologie/Heloderma/Heloderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heloderma, unique représentant de la famille des Helodermatidae, est un genre de sauriens[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heloderma, unique représentant de la famille des Helodermatidae, est un genre de sauriens.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud des États-Unis, du Mexique et du Guatemala[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud des États-Unis, du Mexique et du Guatemala.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des sauriens venimeux. Ils préfèrent des habitats semi-arides.
 Ce sont, avec certaines espèces de varans, les seuls lézards connus produisant du venin.[réf. nécessaire]
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 mars 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 mars 2012) :
 Heloderma horridum (Wiegmann, 1829)
 Heloderma suspectum Cope, 1869</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Représentations artistiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'aspect et la létalité des hélodermes ont inspiré les artistes :
 Le Trésor de la Sierra Madre (chapitre "Divers")
@@ -639,7 +659,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1837 : A classification of the Reptilia. Proceedings of the Zoological Society of London, vol. 1837, n. 5, p. 131-132 &amp; 594 (texte intégral).
 Wiegmann, 1829 : Über die Gesetzlichkeit in der geographischen Verbreitung der Saurier. Isis von Oken, vol. 22, n. 3/4, p. 418-428.</t>
